--- a/DATA_goal/Junction_Flooding_219.xlsx
+++ b/DATA_goal/Junction_Flooding_219.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41651.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>10.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41651.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.87</v>
+        <v>2.89</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.84</v>
+        <v>11.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.07</v>
+        <v>2.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.71</v>
+        <v>2.67</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41651.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.85</v>
+        <v>1.98</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.02</v>
+        <v>2.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>3.59</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41651.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.61</v>
+        <v>2.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.98</v>
+        <v>1.9</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.64</v>
+        <v>3.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>121.99</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.22</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.81</v>
+        <v>2.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41651.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46.4</v>
+        <v>4.64</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>37.93</v>
+        <v>3.79</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>62.77</v>
+        <v>6.28</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.78</v>
+        <v>2.58</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.69</v>
+        <v>1.97</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.71</v>
+        <v>2.37</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>246.76</v>
+        <v>24.68</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>46.64</v>
+        <v>4.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.35</v>
+        <v>3.14</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.36</v>
+        <v>3.14</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>57.13</v>
+        <v>5.71</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41651.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>24.87</v>
+        <v>2.49</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>20.21</v>
+        <v>2.02</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>37.85</v>
+        <v>3.79</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>10.55</v>
+        <v>1.06</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>128.89</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>34.69</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>4.62</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41651.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>43.89</v>
+        <v>4.39</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>35.99</v>
+        <v>3.6</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>60.13</v>
+        <v>6.01</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.39</v>
+        <v>2.44</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.63</v>
+        <v>1.86</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.46</v>
+        <v>2.25</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>233.03</v>
+        <v>23.3</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>44.12</v>
+        <v>4.41</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>29.72</v>
+        <v>2.97</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29.77</v>
+        <v>2.98</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>54.62</v>
+        <v>5.46</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41651.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>24.46</v>
+        <v>2.45</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.16</v>
+        <v>3.72</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>126.6</v>
+        <v>12.66</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>24.7</v>
+        <v>2.47</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>17.98</v>
+        <v>1.8</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>34.01</v>
+        <v>3.4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41651.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J10" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>33.44</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.84</v>
-      </c>
       <c r="K10" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>119.71</v>
+        <v>11.97</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>23.36</v>
+        <v>2.34</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>30.43</v>
+        <v>3.04</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_219.xlsx
+++ b/DATA_goal/Junction_Flooding_219.xlsx
@@ -446,8 +446,8 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -655,103 +655,103 @@
         <v>44900.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44900.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.26</v>
+        <v>22.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.04</v>
+        <v>30.41</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.09</v>
+        <v>140.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44900.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.69</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.57</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.73</v>
+        <v>37.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.12</v>
+        <v>141.18</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.45</v>
+        <v>34.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.85</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44900.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.4</v>
+        <v>44.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_219.xlsx
+++ b/DATA_goal/Junction_Flooding_219.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,73 +655,73 @@
         <v>44900.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.1</v>
@@ -730,28 +730,28 @@
         <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44900.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.39</v>
+        <v>12.388</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.4</v>
+        <v>26.404</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.62</v>
+        <v>22.625</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.138</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.41</v>
+        <v>30.414</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.62</v>
+        <v>14.619</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.62</v>
+        <v>6.619</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.66</v>
+        <v>9.659000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.798</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.87</v>
+        <v>11.874</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.41</v>
+        <v>3.406</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.5</v>
+        <v>9.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.15</v>
+        <v>14.152</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.037000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>140.93</v>
+        <v>140.935</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.21</v>
+        <v>27.215</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.18</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18</v>
+        <v>17.997</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.34</v>
+        <v>9.343999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.262</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.09</v>
+        <v>16.094</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.77</v>
+        <v>6.774</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.241</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.32</v>
+        <v>11.322</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.94</v>
+        <v>27.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.24</v>
+        <v>6.238</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.94</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="4">
@@ -866,40 +866,40 @@
         <v>12.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.76</v>
+        <v>9.756</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.69</v>
+        <v>26.686</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.57</v>
+        <v>22.565</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.371</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.33</v>
+        <v>37.334</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.79</v>
+        <v>14.789</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.68</v>
+        <v>6.684</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.792999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.44</v>
+        <v>11.438</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.76</v>
+        <v>11.761</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.28</v>
+        <v>3.283</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>9.58</v>
@@ -911,55 +911,55 @@
         <v>8.07</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.217</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.18</v>
+        <v>141.179</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.4</v>
+        <v>27.404</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.16</v>
+        <v>9.161</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.3</v>
+        <v>18.295</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.49</v>
+        <v>9.488</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.271</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.68</v>
+        <v>18.681</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.96</v>
+        <v>7.958</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.83</v>
+        <v>6.826</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.26</v>
+        <v>8.263</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.38</v>
+        <v>11.382</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.55</v>
+        <v>34.547</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.85</v>
+        <v>5.849</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.06</v>
+        <v>11.058</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44900.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_219.xlsx
+++ b/DATA_goal/Junction_Flooding_219.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44900.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.34</v>
+        <v>4.343</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.51</v>
+        <v>3.511</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>9.050000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.85</v>
+        <v>7.848</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.06</v>
+        <v>3.062</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.07</v>
+        <v>17.071</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.99</v>
+        <v>4.986</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.23</v>
+        <v>3.233</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.16</v>
+        <v>4.155</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.16</v>
+        <v>4.158</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.185</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.23</v>
+        <v>3.233</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.08</v>
+        <v>5.077</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.34</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.02</v>
+        <v>44.019</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.725</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>3.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.44</v>
+        <v>6.441</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.23</v>
+        <v>3.231</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.169</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.75</v>
+        <v>2.753</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>2.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.89</v>
+        <v>2.888</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.91</v>
+        <v>3.913</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.21</v>
+        <v>16.214</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44900.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>43.45</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_219.xlsx
+++ b/DATA_goal/Junction_Flooding_219.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44900.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.343</v>
+        <v>4.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.511</v>
+        <v>3.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>9.050000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.848</v>
+        <v>7.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.062</v>
+        <v>3.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.071</v>
+        <v>17.07</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.986</v>
+        <v>4.99</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.233</v>
+        <v>3.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.155</v>
+        <v>4.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.158</v>
+        <v>4.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.185</v>
+        <v>1.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.233</v>
+        <v>3.23</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.077</v>
+        <v>5.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.788</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.34</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.019</v>
+        <v>44.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.725</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>3.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.441</v>
+        <v>6.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.231</v>
+        <v>3.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.169</v>
+        <v>8.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.753</v>
+        <v>2.75</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>2.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.888</v>
+        <v>2.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.913</v>
+        <v>3.91</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.214</v>
+        <v>16.21</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44900.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.05</v>
       </c>
     </row>
   </sheetData>
